--- a/biology/Biologie cellulaire et moléculaire/InterPro/InterPro.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/InterPro/InterPro.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">InterPro est une base de données intégrées de « signatures » de domaines et de signaux protéiques utilisée pour la classification et l'annotation automatique de protéines[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">InterPro est une base de données intégrées de « signatures » de domaines et de signaux protéiques utilisée pour la classification et l'annotation automatique de protéines.
 Interpro permet la classification des protéines en fonction de la présence de domaines fonctionnels, répétitions, et signaux grâce à une recherche automatisée dans plusieurs bases de données (CATH-Gene3D, HAMAP, PANTHER, Pfam, PIRSF, PRINTS, ProDom, PROSITE, SMART, SUPERFAMILY, TIGRFAMs).
 </t>
         </is>
